--- a/exel/Customer.xlsx
+++ b/exel/Customer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Education\Software Testing\DA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3932B061-8539-4F40-8714-4A37A8064BF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31EB323-0A22-4AA5-882F-29355361859F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5859136F-181E-45F8-85D3-FB186E7874A2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="33">
   <si>
     <t>Họ Tên</t>
   </si>
@@ -65,9 +65,6 @@
     <t>nthl@gmail.com</t>
   </si>
   <si>
-    <t>Nguyễnnnnnnnnnnnnnnnnnnnnn Trương Hùng Lâm</t>
-  </si>
-  <si>
     <t>0909090909</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
     <t>0heu280900</t>
   </si>
   <si>
-    <t>297 An Dương Vươngggggggggggggggg gggggggggggggggggggggggggggggg ggggggggggggggggggg gggggggggggggggggggggggggggggggggggggggggg</t>
-  </si>
-  <si>
     <t>Địa chỉ tối đa 50 kí tự</t>
   </si>
   <si>
@@ -132,6 +126,12 @@
   </si>
   <si>
     <t>Mật khẩu tối đa 15 kí tự</t>
+  </si>
+  <si>
+    <t>Nguyễnn Trương Hùng Lâm</t>
+  </si>
+  <si>
+    <t>123456a</t>
   </si>
 </sst>
 </file>
@@ -501,7 +501,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -542,36 +542,36 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
       <c r="G2">
         <v>123456</v>
       </c>
-      <c r="H2">
-        <v>123456</v>
+      <c r="H2" t="s">
+        <v>32</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -579,20 +579,20 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
       <c r="G3">
         <v>123456</v>
       </c>
@@ -600,7 +600,7 @@
         <v>123456</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -611,17 +611,17 @@
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
       <c r="G4">
         <v>123456</v>
       </c>
@@ -629,10 +629,10 @@
         <v>123456</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -640,17 +640,17 @@
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
       <c r="G5">
         <v>123456</v>
       </c>
@@ -658,7 +658,7 @@
         <v>123456</v>
       </c>
       <c r="I5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -669,16 +669,16 @@
         <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
         <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
       </c>
       <c r="G6">
         <v>123456</v>
@@ -687,7 +687,7 @@
         <v>12345</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -698,17 +698,17 @@
         <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
       <c r="G7">
         <v>123456</v>
       </c>
@@ -716,57 +716,57 @@
         <v>123456</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8">
+        <v>123456</v>
+      </c>
+      <c r="H8">
+        <v>123456</v>
+      </c>
+      <c r="I8" t="s">
         <v>25</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8">
-        <v>123456</v>
-      </c>
-      <c r="H8">
-        <v>123456</v>
-      </c>
-      <c r="I8" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
         <v>26</v>
       </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" t="s">
-        <v>28</v>
-      </c>
       <c r="G9">
         <v>123456</v>
       </c>
@@ -774,27 +774,27 @@
         <v>123456</v>
       </c>
       <c r="I9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
         <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" t="s">
-        <v>28</v>
       </c>
       <c r="G10">
         <v>1234</v>
@@ -803,36 +803,36 @@
         <v>1234</v>
       </c>
       <c r="I10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
         <v>26</v>
       </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" t="s">
-        <v>28</v>
-      </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/exel/Customer.xlsx
+++ b/exel/Customer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Education\Software Testing\DA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\NetBeansProjects\KTPM\exel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31EB323-0A22-4AA5-882F-29355361859F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77740C33-C7D3-4379-91BF-8CC14B704E19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5859136F-181E-45F8-85D3-FB186E7874A2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{5859136F-181E-45F8-85D3-FB186E7874A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="27">
   <si>
     <t>Họ Tên</t>
   </si>
@@ -41,15 +41,6 @@
     <t>Email</t>
   </si>
   <si>
-    <t>SĐT</t>
-  </si>
-  <si>
-    <t>Địa chỉ</t>
-  </si>
-  <si>
-    <t>Địa chỉ nhận hàng</t>
-  </si>
-  <si>
     <t>Tên đăng nhập</t>
   </si>
   <si>
@@ -65,24 +56,12 @@
     <t>nthl@gmail.com</t>
   </si>
   <si>
-    <t>0909090909</t>
-  </si>
-  <si>
-    <t>297 An Dương Vương</t>
-  </si>
-  <si>
     <t>nthl</t>
   </si>
   <si>
     <t>Note</t>
   </si>
   <si>
-    <t xml:space="preserve"> nthl.com.vn</t>
-  </si>
-  <si>
-    <t>0heu280900</t>
-  </si>
-  <si>
     <t>Địa chỉ tối đa 50 kí tự</t>
   </si>
   <si>
@@ -107,9 +86,6 @@
     <t>dangthikieuoanh@gmail.com</t>
   </si>
   <si>
-    <t>0124578643</t>
-  </si>
-  <si>
     <t>Tên đăng nhập đã được sử dụng</t>
   </si>
   <si>
@@ -132,6 +108,12 @@
   </si>
   <si>
     <t>123456a</t>
+  </si>
+  <si>
+    <t>nthl.com.vn</t>
+  </si>
+  <si>
+    <t>123456ab</t>
   </si>
 </sst>
 </file>
@@ -142,7 +124,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -150,7 +132,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -176,13 +158,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -498,32 +479,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7DD7BBB-0643-4B20-9C7D-91AFEC92E718}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.4140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.4140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.9140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.9140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -533,306 +514,207 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2">
-        <v>123456</v>
-      </c>
-      <c r="H2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3">
-        <v>123456</v>
-      </c>
-      <c r="H3">
-        <v>123456</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
+        <v>24</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="G4">
-        <v>123456</v>
-      </c>
-      <c r="H4">
-        <v>123456</v>
-      </c>
-      <c r="I4" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5">
-        <v>123456</v>
-      </c>
-      <c r="H5">
-        <v>123456</v>
-      </c>
-      <c r="I5" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6">
-        <v>123456</v>
-      </c>
-      <c r="H6">
-        <v>12345</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10">
+        <v>1234</v>
+      </c>
+      <c r="E10">
+        <v>1234</v>
+      </c>
+      <c r="F10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7">
-        <v>123456</v>
-      </c>
-      <c r="H7">
-        <v>123456</v>
-      </c>
-      <c r="I7" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
         <v>22</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8">
-        <v>123456</v>
-      </c>
-      <c r="H8">
-        <v>123456</v>
-      </c>
-      <c r="I8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9">
-        <v>123456</v>
-      </c>
-      <c r="H9">
-        <v>123456</v>
-      </c>
-      <c r="I9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10">
-        <v>1234</v>
-      </c>
-      <c r="H10">
-        <v>1234</v>
-      </c>
-      <c r="I10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -849,5 +731,6 @@
     <hyperlink ref="B11" r:id="rId10" xr:uid="{178F6316-1AA2-4CC4-8936-20C58FCF6F15}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>